--- a/DataQ5.xlsx
+++ b/DataQ5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adval\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adval\OneDrive\Desktop\TRIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695E5C34-3DE8-4643-A097-D3AD813A07C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D5D30C-1059-4941-BC10-9776B300D83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23340" windowHeight="14985" tabRatio="388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31665" yWindow="-645" windowWidth="23340" windowHeight="14985" tabRatio="388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="10">
   <si>
     <t>Q1</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>Q5</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>საშუალო რგოლის მენეჯმენტი (განყოფილების/სამ</t>
+  </si>
+  <si>
+    <t>ჯგუფის უფროსი / სპეციალისტი</t>
+  </si>
+  <si>
+    <t>ზედა რგოლის მენეჯმენტი</t>
   </si>
 </sst>
 </file>
@@ -418,16 +430,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F401"/>
+  <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G235"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,8 +460,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -466,8 +483,11 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -486,8 +506,11 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -506,8 +529,11 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -526,8 +552,11 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -546,8 +575,11 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -566,8 +598,11 @@
       <c r="F7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -586,8 +621,11 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -606,8 +644,11 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -626,8 +667,11 @@
       <c r="F10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -646,8 +690,11 @@
       <c r="F11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -666,8 +713,11 @@
       <c r="F12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -686,8 +736,11 @@
       <c r="F13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -706,8 +759,11 @@
       <c r="F14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -726,8 +782,11 @@
       <c r="F15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -746,8 +805,11 @@
       <c r="F16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -766,8 +828,11 @@
       <c r="F17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -786,8 +851,11 @@
       <c r="F18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -806,8 +874,11 @@
       <c r="F19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -826,8 +897,11 @@
       <c r="F20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -846,8 +920,11 @@
       <c r="F21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -866,8 +943,11 @@
       <c r="F22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -886,8 +966,11 @@
       <c r="F23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -906,8 +989,11 @@
       <c r="F24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -926,8 +1012,11 @@
       <c r="F25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -946,8 +1035,11 @@
       <c r="F26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -966,8 +1058,11 @@
       <c r="F27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -986,8 +1081,11 @@
       <c r="F28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -1006,8 +1104,11 @@
       <c r="F29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -1026,8 +1127,11 @@
       <c r="F30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -1046,8 +1150,11 @@
       <c r="F31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -1066,8 +1173,11 @@
       <c r="F32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -1086,8 +1196,11 @@
       <c r="F33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -1106,8 +1219,11 @@
       <c r="F34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -1126,8 +1242,11 @@
       <c r="F35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -1146,8 +1265,11 @@
       <c r="F36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -1166,8 +1288,11 @@
       <c r="F37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -1186,8 +1311,11 @@
       <c r="F38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -1206,8 +1334,11 @@
       <c r="F39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -1226,8 +1357,11 @@
       <c r="F40" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -1246,8 +1380,11 @@
       <c r="F41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>3</v>
       </c>
@@ -1266,8 +1403,11 @@
       <c r="F42" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>4</v>
       </c>
@@ -1286,8 +1426,11 @@
       <c r="F43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -1306,8 +1449,11 @@
       <c r="F44" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -1326,8 +1472,11 @@
       <c r="F45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>3</v>
       </c>
@@ -1346,8 +1495,11 @@
       <c r="F46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3</v>
       </c>
@@ -1366,8 +1518,11 @@
       <c r="F47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3</v>
       </c>
@@ -1386,8 +1541,11 @@
       <c r="F48" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -1406,8 +1564,11 @@
       <c r="F49" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>3</v>
       </c>
@@ -1426,8 +1587,11 @@
       <c r="F50" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>3</v>
       </c>
@@ -1446,8 +1610,11 @@
       <c r="F51" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -1466,8 +1633,11 @@
       <c r="F52" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -1486,8 +1656,11 @@
       <c r="F53" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -1506,8 +1679,11 @@
       <c r="F54" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>3</v>
       </c>
@@ -1526,8 +1702,11 @@
       <c r="F55" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>3</v>
       </c>
@@ -1546,8 +1725,11 @@
       <c r="F56" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>3</v>
       </c>
@@ -1566,8 +1748,11 @@
       <c r="F57" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>3</v>
       </c>
@@ -1586,8 +1771,11 @@
       <c r="F58" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -1606,8 +1794,11 @@
       <c r="F59" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -1626,8 +1817,11 @@
       <c r="F60" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -1646,8 +1840,11 @@
       <c r="F61" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>5</v>
       </c>
@@ -1666,8 +1863,11 @@
       <c r="F62" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -1686,8 +1886,11 @@
       <c r="F63" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1</v>
       </c>
@@ -1706,8 +1909,11 @@
       <c r="F64" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>4</v>
       </c>
@@ -1726,8 +1932,11 @@
       <c r="F65" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1</v>
       </c>
@@ -1746,8 +1955,11 @@
       <c r="F66" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>3</v>
       </c>
@@ -1766,8 +1978,11 @@
       <c r="F67" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>3</v>
       </c>
@@ -1786,8 +2001,11 @@
       <c r="F68" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -1806,8 +2024,11 @@
       <c r="F69" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -1826,8 +2047,11 @@
       <c r="F70" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -1846,8 +2070,11 @@
       <c r="F71" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>3</v>
       </c>
@@ -1866,8 +2093,11 @@
       <c r="F72" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -1886,8 +2116,11 @@
       <c r="F73" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2</v>
       </c>
@@ -1906,8 +2139,11 @@
       <c r="F74" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>3</v>
       </c>
@@ -1926,8 +2162,11 @@
       <c r="F75" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>3</v>
       </c>
@@ -1946,8 +2185,11 @@
       <c r="F76" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -1966,8 +2208,11 @@
       <c r="F77" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>4</v>
       </c>
@@ -1986,8 +2231,11 @@
       <c r="F78" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1</v>
       </c>
@@ -2006,8 +2254,11 @@
       <c r="F79" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>3</v>
       </c>
@@ -2026,8 +2277,11 @@
       <c r="F80" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>4</v>
       </c>
@@ -2046,8 +2300,11 @@
       <c r="F81" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>3</v>
       </c>
@@ -2066,8 +2323,11 @@
       <c r="F82" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>3</v>
       </c>
@@ -2086,8 +2346,11 @@
       <c r="F83" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>3</v>
       </c>
@@ -2106,8 +2369,11 @@
       <c r="F84" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>4</v>
       </c>
@@ -2126,8 +2392,11 @@
       <c r="F85" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>3</v>
       </c>
@@ -2146,8 +2415,11 @@
       <c r="F86" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1</v>
       </c>
@@ -2166,8 +2438,11 @@
       <c r="F87" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>3</v>
       </c>
@@ -2186,8 +2461,11 @@
       <c r="F88" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>2</v>
       </c>
@@ -2206,8 +2484,11 @@
       <c r="F89" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>2</v>
       </c>
@@ -2226,8 +2507,11 @@
       <c r="F90" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2</v>
       </c>
@@ -2246,8 +2530,11 @@
       <c r="F91" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>2</v>
       </c>
@@ -2266,8 +2553,11 @@
       <c r="F92" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>3</v>
       </c>
@@ -2286,8 +2576,11 @@
       <c r="F93" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1</v>
       </c>
@@ -2306,8 +2599,11 @@
       <c r="F94" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>3</v>
       </c>
@@ -2326,8 +2622,11 @@
       <c r="F95" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>3</v>
       </c>
@@ -2346,8 +2645,11 @@
       <c r="F96" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>3</v>
       </c>
@@ -2366,8 +2668,11 @@
       <c r="F97" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>4</v>
       </c>
@@ -2386,8 +2691,11 @@
       <c r="F98" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>3</v>
       </c>
@@ -2406,8 +2714,11 @@
       <c r="F99" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>3</v>
       </c>
@@ -2426,8 +2737,11 @@
       <c r="F100" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>3</v>
       </c>
@@ -2446,8 +2760,11 @@
       <c r="F101" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2</v>
       </c>
@@ -2466,8 +2783,11 @@
       <c r="F102" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>3</v>
       </c>
@@ -2486,8 +2806,11 @@
       <c r="F103" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2</v>
       </c>
@@ -2506,8 +2829,11 @@
       <c r="F104" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>3</v>
       </c>
@@ -2526,8 +2852,11 @@
       <c r="F105" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2</v>
       </c>
@@ -2546,8 +2875,11 @@
       <c r="F106" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>3</v>
       </c>
@@ -2566,8 +2898,11 @@
       <c r="F107" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>3</v>
       </c>
@@ -2586,8 +2921,11 @@
       <c r="F108" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>3</v>
       </c>
@@ -2606,8 +2944,11 @@
       <c r="F109" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>3</v>
       </c>
@@ -2626,8 +2967,11 @@
       <c r="F110" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>3</v>
       </c>
@@ -2646,8 +2990,11 @@
       <c r="F111" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>3</v>
       </c>
@@ -2666,8 +3013,11 @@
       <c r="F112" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>3</v>
       </c>
@@ -2686,8 +3036,11 @@
       <c r="F113" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>3</v>
       </c>
@@ -2706,8 +3059,11 @@
       <c r="F114" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2</v>
       </c>
@@ -2726,8 +3082,11 @@
       <c r="F115" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>3</v>
       </c>
@@ -2746,8 +3105,11 @@
       <c r="F116" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>3</v>
       </c>
@@ -2766,8 +3128,11 @@
       <c r="F117" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>5</v>
       </c>
@@ -2786,8 +3151,11 @@
       <c r="F118" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>3</v>
       </c>
@@ -2806,8 +3174,11 @@
       <c r="F119" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>1</v>
       </c>
@@ -2826,8 +3197,11 @@
       <c r="F120" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>3</v>
       </c>
@@ -2846,8 +3220,11 @@
       <c r="F121" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>3</v>
       </c>
@@ -2866,8 +3243,11 @@
       <c r="F122" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>4</v>
       </c>
@@ -2886,8 +3266,11 @@
       <c r="F123" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>1</v>
       </c>
@@ -2906,8 +3289,11 @@
       <c r="F124" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>1</v>
       </c>
@@ -2926,8 +3312,11 @@
       <c r="F125" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2</v>
       </c>
@@ -2946,8 +3335,11 @@
       <c r="F126" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>3</v>
       </c>
@@ -2966,8 +3358,11 @@
       <c r="F127" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>4</v>
       </c>
@@ -2986,8 +3381,11 @@
       <c r="F128" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>3</v>
       </c>
@@ -3006,8 +3404,11 @@
       <c r="F129" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>5</v>
       </c>
@@ -3026,8 +3427,11 @@
       <c r="F130" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>4</v>
       </c>
@@ -3046,8 +3450,11 @@
       <c r="F131" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>3</v>
       </c>
@@ -3066,8 +3473,11 @@
       <c r="F132" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2</v>
       </c>
@@ -3086,8 +3496,11 @@
       <c r="F133" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>3</v>
       </c>
@@ -3106,8 +3519,11 @@
       <c r="F134" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>1</v>
       </c>
@@ -3126,8 +3542,11 @@
       <c r="F135" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>3</v>
       </c>
@@ -3146,8 +3565,11 @@
       <c r="F136" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>3</v>
       </c>
@@ -3166,8 +3588,11 @@
       <c r="F137" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>3</v>
       </c>
@@ -3186,8 +3611,11 @@
       <c r="F138" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>3</v>
       </c>
@@ -3206,8 +3634,11 @@
       <c r="F139" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>5</v>
       </c>
@@ -3226,8 +3657,11 @@
       <c r="F140" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2</v>
       </c>
@@ -3246,8 +3680,11 @@
       <c r="F141" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>3</v>
       </c>
@@ -3266,8 +3703,11 @@
       <c r="F142" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2</v>
       </c>
@@ -3286,8 +3726,11 @@
       <c r="F143" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>3</v>
       </c>
@@ -3306,8 +3749,11 @@
       <c r="F144" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>3</v>
       </c>
@@ -3326,8 +3772,11 @@
       <c r="F145" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>3</v>
       </c>
@@ -3346,8 +3795,11 @@
       <c r="F146" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>3</v>
       </c>
@@ -3366,8 +3818,11 @@
       <c r="F147" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2</v>
       </c>
@@ -3386,8 +3841,11 @@
       <c r="F148" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>3</v>
       </c>
@@ -3406,8 +3864,11 @@
       <c r="F149" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>3</v>
       </c>
@@ -3426,8 +3887,11 @@
       <c r="F150" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2</v>
       </c>
@@ -3446,8 +3910,11 @@
       <c r="F151" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>3</v>
       </c>
@@ -3466,8 +3933,11 @@
       <c r="F152" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2</v>
       </c>
@@ -3486,8 +3956,11 @@
       <c r="F153" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>3</v>
       </c>
@@ -3506,8 +3979,11 @@
       <c r="F154" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>3</v>
       </c>
@@ -3526,8 +4002,11 @@
       <c r="F155" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>3</v>
       </c>
@@ -3546,8 +4025,11 @@
       <c r="F156" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2</v>
       </c>
@@ -3566,8 +4048,11 @@
       <c r="F157" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>1</v>
       </c>
@@ -3586,8 +4071,11 @@
       <c r="F158" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>5</v>
       </c>
@@ -3606,8 +4094,11 @@
       <c r="F159" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>2</v>
       </c>
@@ -3626,8 +4117,11 @@
       <c r="F160" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>3</v>
       </c>
@@ -3646,8 +4140,11 @@
       <c r="F161" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>2</v>
       </c>
@@ -3666,8 +4163,11 @@
       <c r="F162" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>1</v>
       </c>
@@ -3686,8 +4186,11 @@
       <c r="F163" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>2</v>
       </c>
@@ -3706,8 +4209,11 @@
       <c r="F164" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>3</v>
       </c>
@@ -3726,8 +4232,11 @@
       <c r="F165" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>2</v>
       </c>
@@ -3746,8 +4255,11 @@
       <c r="F166" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>3</v>
       </c>
@@ -3766,8 +4278,11 @@
       <c r="F167" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>3</v>
       </c>
@@ -3786,8 +4301,11 @@
       <c r="F168" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>3</v>
       </c>
@@ -3806,8 +4324,11 @@
       <c r="F169" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>3</v>
       </c>
@@ -3826,8 +4347,11 @@
       <c r="F170" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>3</v>
       </c>
@@ -3846,8 +4370,11 @@
       <c r="F171" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>3</v>
       </c>
@@ -3866,8 +4393,11 @@
       <c r="F172" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>2</v>
       </c>
@@ -3886,8 +4416,11 @@
       <c r="F173" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>3</v>
       </c>
@@ -3906,8 +4439,11 @@
       <c r="F174" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>2</v>
       </c>
@@ -3926,8 +4462,11 @@
       <c r="F175" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>3</v>
       </c>
@@ -3946,8 +4485,11 @@
       <c r="F176" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>2</v>
       </c>
@@ -3966,8 +4508,11 @@
       <c r="F177" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>3</v>
       </c>
@@ -3986,8 +4531,11 @@
       <c r="F178" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>3</v>
       </c>
@@ -4006,8 +4554,11 @@
       <c r="F179" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>3</v>
       </c>
@@ -4026,8 +4577,11 @@
       <c r="F180" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>2</v>
       </c>
@@ -4046,8 +4600,11 @@
       <c r="F181" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>3</v>
       </c>
@@ -4066,8 +4623,11 @@
       <c r="F182" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>2</v>
       </c>
@@ -4086,8 +4646,11 @@
       <c r="F183" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>2</v>
       </c>
@@ -4106,8 +4669,11 @@
       <c r="F184" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>2</v>
       </c>
@@ -4126,8 +4692,11 @@
       <c r="F185" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>2</v>
       </c>
@@ -4146,8 +4715,11 @@
       <c r="F186" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>2</v>
       </c>
@@ -4166,8 +4738,11 @@
       <c r="F187" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>3</v>
       </c>
@@ -4186,8 +4761,11 @@
       <c r="F188" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>4</v>
       </c>
@@ -4206,8 +4784,11 @@
       <c r="F189" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>1</v>
       </c>
@@ -4226,8 +4807,11 @@
       <c r="F190" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>2</v>
       </c>
@@ -4246,8 +4830,11 @@
       <c r="F191" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>4</v>
       </c>
@@ -4266,8 +4853,11 @@
       <c r="F192" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>4</v>
       </c>
@@ -4286,8 +4876,11 @@
       <c r="F193" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>1</v>
       </c>
@@ -4306,8 +4899,11 @@
       <c r="F194" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>3</v>
       </c>
@@ -4326,8 +4922,11 @@
       <c r="F195" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>3</v>
       </c>
@@ -4346,8 +4945,11 @@
       <c r="F196" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>2</v>
       </c>
@@ -4366,8 +4968,11 @@
       <c r="F197" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>2</v>
       </c>
@@ -4386,8 +4991,11 @@
       <c r="F198" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>3</v>
       </c>
@@ -4406,8 +5014,11 @@
       <c r="F199" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>2</v>
       </c>
@@ -4426,8 +5037,11 @@
       <c r="F200" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>3</v>
       </c>
@@ -4446,8 +5060,11 @@
       <c r="F201" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>2</v>
       </c>
@@ -4466,8 +5083,11 @@
       <c r="F202" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>3</v>
       </c>
@@ -4486,8 +5106,11 @@
       <c r="F203" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>3</v>
       </c>
@@ -4506,8 +5129,11 @@
       <c r="F204" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G204" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>2</v>
       </c>
@@ -4526,8 +5152,11 @@
       <c r="F205" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>4</v>
       </c>
@@ -4546,8 +5175,11 @@
       <c r="F206" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>4</v>
       </c>
@@ -4566,8 +5198,11 @@
       <c r="F207" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>2</v>
       </c>
@@ -4586,8 +5221,11 @@
       <c r="F208" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>3</v>
       </c>
@@ -4606,8 +5244,11 @@
       <c r="F209" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>2</v>
       </c>
@@ -4626,8 +5267,11 @@
       <c r="F210" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>3</v>
       </c>
@@ -4646,8 +5290,11 @@
       <c r="F211" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>3</v>
       </c>
@@ -4666,8 +5313,11 @@
       <c r="F212" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>3</v>
       </c>
@@ -4686,8 +5336,11 @@
       <c r="F213" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>3</v>
       </c>
@@ -4706,8 +5359,11 @@
       <c r="F214" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>3</v>
       </c>
@@ -4726,8 +5382,11 @@
       <c r="F215" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>3</v>
       </c>
@@ -4746,8 +5405,11 @@
       <c r="F216" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>2</v>
       </c>
@@ -4766,8 +5428,11 @@
       <c r="F217" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>3</v>
       </c>
@@ -4786,8 +5451,11 @@
       <c r="F218" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>2</v>
       </c>
@@ -4806,8 +5474,11 @@
       <c r="F219" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>3</v>
       </c>
@@ -4826,8 +5497,11 @@
       <c r="F220" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>3</v>
       </c>
@@ -4846,8 +5520,11 @@
       <c r="F221" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>3</v>
       </c>
@@ -4866,8 +5543,11 @@
       <c r="F222" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>4</v>
       </c>
@@ -4886,8 +5566,11 @@
       <c r="F223" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G223" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>4</v>
       </c>
@@ -4906,8 +5589,11 @@
       <c r="F224" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>3</v>
       </c>
@@ -4926,8 +5612,11 @@
       <c r="F225" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>3</v>
       </c>
@@ -4946,8 +5635,11 @@
       <c r="F226" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>3</v>
       </c>
@@ -4966,8 +5658,11 @@
       <c r="F227" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>2</v>
       </c>
@@ -4986,8 +5681,11 @@
       <c r="F228" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>2</v>
       </c>
@@ -5006,8 +5704,11 @@
       <c r="F229" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>3</v>
       </c>
@@ -5026,8 +5727,11 @@
       <c r="F230" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G230" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>4</v>
       </c>
@@ -5046,8 +5750,11 @@
       <c r="F231" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>1</v>
       </c>
@@ -5066,8 +5773,11 @@
       <c r="F232" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>3</v>
       </c>
@@ -5086,8 +5796,11 @@
       <c r="F233" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>2</v>
       </c>
@@ -5106,8 +5819,11 @@
       <c r="F234" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>3</v>
       </c>
@@ -5126,36 +5842,39 @@
       <c r="F235" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
